--- a/data/trans_orig/RUIDO_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10355</v>
+        <v>10845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29928</v>
+        <v>28625</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09384330653463695</v>
+        <v>0.09384330653463697</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05307967060293375</v>
+        <v>0.05559089350517508</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1534052705982516</v>
+        <v>0.1467228984517592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>14532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9139</v>
+        <v>8960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21697</v>
+        <v>21321</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09128508516323955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0574107231817487</v>
+        <v>0.05628209687539597</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.136297220794841</v>
+        <v>0.1339332974053758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -783,19 +783,19 @@
         <v>32840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23413</v>
+        <v>23021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46104</v>
+        <v>44930</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09269382114887065</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06608604366179929</v>
+        <v>0.06498062740307552</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1301335383137046</v>
+        <v>0.1268188072880523</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7870</v>
+        <v>7690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27678</v>
+        <v>26224</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07457243721560618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04034129430818056</v>
+        <v>0.03941859646400331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1418715414634348</v>
+        <v>0.1344157247330311</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -833,19 +833,19 @@
         <v>16301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10517</v>
+        <v>10443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26021</v>
+        <v>25070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1024009547474014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06606502065781741</v>
+        <v>0.06560312918413806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1634594376253983</v>
+        <v>0.1574818439342117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -854,19 +854,19 @@
         <v>30850</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20644</v>
+        <v>21299</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44905</v>
+        <v>44845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08707662257188246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05827090918715506</v>
+        <v>0.06011857105185659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1267490830391152</v>
+        <v>0.1265808474064687</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>87156</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71540</v>
+        <v>72605</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101471</v>
+        <v>102263</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4467396367078981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3666958477032099</v>
+        <v>0.3721549607072867</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5201145328560485</v>
+        <v>0.524175770294366</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -904,19 +904,19 @@
         <v>73634</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63326</v>
+        <v>63641</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83998</v>
+        <v>83925</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4625561736369536</v>
+        <v>0.4625561736369535</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3977998873210204</v>
+        <v>0.3997805266328539</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5276584046020871</v>
+        <v>0.5271988497850698</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>198</v>
@@ -925,19 +925,19 @@
         <v>160790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142906</v>
+        <v>143941</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>177798</v>
+        <v>178380</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.453846479867234</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4033677532647028</v>
+        <v>0.4062882868645696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.50185370070883</v>
+        <v>0.5034972396002234</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>35961</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25408</v>
+        <v>25289</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47983</v>
+        <v>49131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1843284919926312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1302336738310629</v>
+        <v>0.1296242575977656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2459471243455158</v>
+        <v>0.25183190192694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -975,19 +975,19 @@
         <v>26380</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19808</v>
+        <v>18985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35813</v>
+        <v>34617</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1657129332150018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.124430090719807</v>
+        <v>0.1192568793634732</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.224968874825226</v>
+        <v>0.2174566792490125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -996,19 +996,19 @@
         <v>62341</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51053</v>
+        <v>48996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78376</v>
+        <v>77659</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1759639645901139</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1441020452491943</v>
+        <v>0.138296073699165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.221223715545307</v>
+        <v>0.2192023162180187</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>39119</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29088</v>
+        <v>29172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50623</v>
+        <v>52042</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2005161275492276</v>
+        <v>0.2005161275492277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1490962886418366</v>
+        <v>0.1495279121700469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2594838210141129</v>
+        <v>0.2667554628178693</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -1046,19 +1046,19 @@
         <v>28343</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21611</v>
+        <v>21403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36816</v>
+        <v>37112</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1780448532374036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1357574967293705</v>
+        <v>0.1344497808300601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2312712807913037</v>
+        <v>0.2331314614283057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -1067,19 +1067,19 @@
         <v>67462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54515</v>
+        <v>55180</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81807</v>
+        <v>82502</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.190419111821899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1538741151585785</v>
+        <v>0.1557517013139992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2309096753832849</v>
+        <v>0.2328709142558539</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>21149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12279</v>
+        <v>12723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33613</v>
+        <v>33669</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1115796557905719</v>
+        <v>0.1115796557905718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06478055623499694</v>
+        <v>0.06712394194220453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1773341125922715</v>
+        <v>0.1776324447924314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1192,19 +1192,19 @@
         <v>13559</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7938</v>
+        <v>7635</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22682</v>
+        <v>22056</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08481877569664906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04965632394378258</v>
+        <v>0.0477592860106574</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1418909524017969</v>
+        <v>0.1379738961479582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1213,19 +1213,19 @@
         <v>34708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23933</v>
+        <v>24332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47928</v>
+        <v>49489</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09933613160582799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06849847975256143</v>
+        <v>0.06964035053938421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1371709500055498</v>
+        <v>0.1416409807814937</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>17569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10871</v>
+        <v>10993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28571</v>
+        <v>26808</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09268832244567241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05735374892946531</v>
+        <v>0.05799971385234292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1507346511783875</v>
+        <v>0.1414319590708046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1263,19 +1263,19 @@
         <v>20968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14195</v>
+        <v>14340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29085</v>
+        <v>29611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1311683794242939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08879746813991163</v>
+        <v>0.08970552658172654</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1819473106919505</v>
+        <v>0.185236814852316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1284,19 +1284,19 @@
         <v>38537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28167</v>
+        <v>28652</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50644</v>
+        <v>50002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1102935546575631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08061619676879367</v>
+        <v>0.08200383608399488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.14494629380933</v>
+        <v>0.1431078363726175</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>90122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75457</v>
+        <v>75185</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103564</v>
+        <v>103870</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4754663530008807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3980966920183782</v>
+        <v>0.3966626653034949</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5463859682939647</v>
+        <v>0.5479973945944139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -1334,19 +1334,19 @@
         <v>68651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58140</v>
+        <v>58742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78957</v>
+        <v>79535</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4294538059598558</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.363700031602022</v>
+        <v>0.3674687882228022</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4939238225454827</v>
+        <v>0.4975417204101735</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>184</v>
@@ -1355,19 +1355,19 @@
         <v>158773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>139667</v>
+        <v>138913</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177764</v>
+        <v>177896</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4544148879324211</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3997330103941731</v>
+        <v>0.3975766516133285</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5087685734562382</v>
+        <v>0.5091463246525159</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>40611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30483</v>
+        <v>30892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51957</v>
+        <v>54751</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2142574964814219</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1608206185680464</v>
+        <v>0.1629787334600448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2741137066011287</v>
+        <v>0.288858840840752</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1405,19 +1405,19 @@
         <v>28343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20793</v>
+        <v>20359</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37997</v>
+        <v>37915</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1773054134377062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1300725017563828</v>
+        <v>0.1273614456874638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2376957743190549</v>
+        <v>0.2371839851170887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1426,19 +1426,19 @@
         <v>68955</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55910</v>
+        <v>56145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85184</v>
+        <v>84981</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1973513364136467</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1600177989809419</v>
+        <v>0.1606887568243579</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2438017452244787</v>
+        <v>0.2432200730439436</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>20093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12867</v>
+        <v>12742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29873</v>
+        <v>28131</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1060081722814531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06788507790891353</v>
+        <v>0.06722572106184006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1576042339046572</v>
+        <v>0.1484151993551217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -1476,19 +1476,19 @@
         <v>28335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21241</v>
+        <v>21095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38020</v>
+        <v>38213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1772536254814952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1328763836813314</v>
+        <v>0.1319651841580467</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2378405907206746</v>
+        <v>0.2390434677381613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -1497,19 +1497,19 @@
         <v>48428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37246</v>
+        <v>37866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61273</v>
+        <v>60411</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1386040893905412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1066004207514607</v>
+        <v>0.1083744984023486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1753674847000552</v>
+        <v>0.1728993389666932</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>4653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1189</v>
+        <v>1222</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13100</v>
+        <v>12529</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02348464603562688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006001280112258163</v>
+        <v>0.006167820519785976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06611558814606544</v>
+        <v>0.06323435254402061</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1622,19 +1622,19 @@
         <v>5256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2363</v>
+        <v>2216</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10973</v>
+        <v>10088</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06937808931210189</v>
+        <v>0.06937808931210188</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03118939269020242</v>
+        <v>0.02925844269499065</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1448542470708568</v>
+        <v>0.1331691826278373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>9909</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5067</v>
+        <v>4878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20312</v>
+        <v>18769</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03617817484416864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01849898465510671</v>
+        <v>0.01781006436655807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07416332035995367</v>
+        <v>0.06852828792240734</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>46596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35671</v>
+        <v>35050</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60358</v>
+        <v>60071</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2351761165071007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1800352287020438</v>
+        <v>0.1769047228452583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3046361669757336</v>
+        <v>0.3031852798882594</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1693,19 +1693,19 @@
         <v>21764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15947</v>
+        <v>15888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29147</v>
+        <v>28602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2873008203607151</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2105084987997259</v>
+        <v>0.2097366906069289</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3847700861266358</v>
+        <v>0.3775741579780197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -1714,19 +1714,19 @@
         <v>68360</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56556</v>
+        <v>54359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81623</v>
+        <v>82159</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2495931308508844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2064950386251635</v>
+        <v>0.1984734417062962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2980205638235613</v>
+        <v>0.2999764027949256</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>88003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74381</v>
+        <v>73336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>102933</v>
+        <v>102772</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.444162978947083</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3754095424146593</v>
+        <v>0.3701354863289994</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5195177275948335</v>
+        <v>0.5187063812984056</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -1764,19 +1764,19 @@
         <v>21464</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15757</v>
+        <v>15615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27822</v>
+        <v>28507</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2833458725747547</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2080091246764082</v>
+        <v>0.2061267609469034</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3672770184007879</v>
+        <v>0.3763161591056596</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>131</v>
@@ -1785,19 +1785,19 @@
         <v>109467</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94923</v>
+        <v>93777</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124123</v>
+        <v>124832</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3996830614053573</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3465807250354205</v>
+        <v>0.342394756614997</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4531939652504527</v>
+        <v>0.4557819297227316</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>30659</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20562</v>
+        <v>21256</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42147</v>
+        <v>42703</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1547392932509631</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1037817158720061</v>
+        <v>0.1072842300308433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2127232286778221</v>
+        <v>0.2155280244458208</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1835,19 +1835,19 @@
         <v>11743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7407</v>
+        <v>7743</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17619</v>
+        <v>17627</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1550119316314682</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09777765499123652</v>
+        <v>0.1022178273474766</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2325811870667784</v>
+        <v>0.2326942406672187</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1856,19 +1856,19 @@
         <v>42401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32534</v>
+        <v>32252</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55614</v>
+        <v>56631</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1548147014768486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1187878955373281</v>
+        <v>0.1177588944950107</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2030578514014976</v>
+        <v>0.2067675931998066</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>28221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20232</v>
+        <v>20297</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40428</v>
+        <v>39609</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1424369652592262</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1021118602389342</v>
+        <v>0.1024398887623505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2040450301781546</v>
+        <v>0.1999120510552209</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -1906,19 +1906,19 @@
         <v>15527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10755</v>
+        <v>10208</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22561</v>
+        <v>21149</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2049632861209601</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1419747763639625</v>
+        <v>0.1347532672073424</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2978214857148886</v>
+        <v>0.2791794435377544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -1927,19 +1927,19 @@
         <v>43748</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32703</v>
+        <v>33693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55511</v>
+        <v>55589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.159730931422741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1194027860272135</v>
+        <v>0.1230183423214816</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2026806111273586</v>
+        <v>0.202963388642078</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>50732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34810</v>
+        <v>34893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71528</v>
+        <v>72372</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.11405906150178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07826125028699969</v>
+        <v>0.07844906049148989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1608132278893256</v>
+        <v>0.1627121765020807</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2052,19 +2052,19 @@
         <v>29555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21707</v>
+        <v>22102</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40364</v>
+        <v>40361</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09105073319289829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06687416094246572</v>
+        <v>0.06809020404262543</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1243516556083258</v>
+        <v>0.1243412513213749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -2073,19 +2073,19 @@
         <v>80287</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62109</v>
+        <v>61674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104379</v>
+        <v>102839</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1043520425450199</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08072603976820285</v>
+        <v>0.08016055629218059</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1356661984574831</v>
+        <v>0.1336641294132305</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>119916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102204</v>
+        <v>101495</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>139026</v>
+        <v>139211</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2696033035128901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2297810945546458</v>
+        <v>0.2281866047242773</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.312566175413888</v>
+        <v>0.3129835396092201</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>155</v>
@@ -2123,19 +2123,19 @@
         <v>100054</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>87025</v>
+        <v>88199</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>114934</v>
+        <v>115107</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3082421102319187</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2681029021622663</v>
+        <v>0.2717189362977465</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3540813700462276</v>
+        <v>0.3546150663383519</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>284</v>
@@ -2144,19 +2144,19 @@
         <v>219970</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>195490</v>
+        <v>194878</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>243629</v>
+        <v>242633</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2859046890048302</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.254085814444654</v>
+        <v>0.2532906733378229</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3166552427553568</v>
+        <v>0.3153600598915061</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>161107</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>140882</v>
+        <v>138922</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>183817</v>
+        <v>182295</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3622113001096696</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3167405665548991</v>
+        <v>0.3123334477263822</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4132698647992015</v>
+        <v>0.4098480267387304</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>181</v>
@@ -2194,19 +2194,19 @@
         <v>119657</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>106329</v>
+        <v>105087</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>134467</v>
+        <v>133377</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3686312817358957</v>
+        <v>0.3686312817358958</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3275729030465628</v>
+        <v>0.3237470153361354</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4142577622630465</v>
+        <v>0.4109013237127771</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>353</v>
@@ -2215,19 +2215,19 @@
         <v>280763</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>256781</v>
+        <v>257119</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>306646</v>
+        <v>306785</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3649198360150692</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3337488862384445</v>
+        <v>0.3341881841659195</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3985605407972297</v>
+        <v>0.3987411362032157</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>64207</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50496</v>
+        <v>50390</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80798</v>
+        <v>81857</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1443539670847615</v>
+        <v>0.1443539670847616</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1135282724722543</v>
+        <v>0.1132900202375898</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1816555777398455</v>
+        <v>0.1840364682624506</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2265,19 +2265,19 @@
         <v>40771</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30427</v>
+        <v>30406</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53132</v>
+        <v>53594</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.125606087353421</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09373832899972398</v>
+        <v>0.09367328834720738</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1636873250163272</v>
+        <v>0.1651083875948147</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -2286,19 +2286,19 @@
         <v>104978</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>87234</v>
+        <v>85719</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125210</v>
+        <v>126340</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1364443953197876</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.113381869344011</v>
+        <v>0.1114125506535693</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1627404732012476</v>
+        <v>0.1642099225954854</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>48825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37078</v>
+        <v>36472</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64222</v>
+        <v>63889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1097723677908988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08336009535965579</v>
+        <v>0.08199877442094261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1443878374607762</v>
+        <v>0.1436399772535995</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -2336,19 +2336,19 @@
         <v>34560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25340</v>
+        <v>25883</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45001</v>
+        <v>45836</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1064697874858663</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07806571444504244</v>
+        <v>0.07974016993759812</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.138637022948379</v>
+        <v>0.1412093281112419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -2357,19 +2357,19 @@
         <v>83385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>67414</v>
+        <v>68276</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100178</v>
+        <v>101861</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1083790371152931</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0876203322502805</v>
+        <v>0.08874165570598785</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1302057414399637</v>
+        <v>0.1323927955754197</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>8950</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4440</v>
+        <v>4249</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16582</v>
+        <v>15866</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03988667726250054</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01978655023832503</v>
+        <v>0.01893680833861221</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07389961594249218</v>
+        <v>0.07070568977977329</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -2482,19 +2482,19 @@
         <v>29570</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22029</v>
+        <v>22378</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38748</v>
+        <v>39684</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08865799708767325</v>
+        <v>0.08865799708767323</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06605007908600934</v>
+        <v>0.06709610214724844</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.116177154635604</v>
+        <v>0.1189836066012513</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>57</v>
@@ -2503,19 +2503,19 @@
         <v>38520</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28260</v>
+        <v>29633</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>50424</v>
+        <v>50460</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06904253300738247</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05065340538807629</v>
+        <v>0.05311372021136329</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09037966758753775</v>
+        <v>0.09044342072140275</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>103238</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87603</v>
+        <v>86896</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118423</v>
+        <v>117789</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4600813930399594</v>
+        <v>0.4600813930399595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3904049933188337</v>
+        <v>0.3872530131085939</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.527753912016529</v>
+        <v>0.5249295073398501</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>233</v>
@@ -2553,19 +2553,19 @@
         <v>140712</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>125632</v>
+        <v>127273</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156787</v>
+        <v>157659</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4218931373680555</v>
+        <v>0.4218931373680556</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3766794149181737</v>
+        <v>0.3815994046444041</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4700893048437986</v>
+        <v>0.4727049394649233</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>335</v>
@@ -2574,19 +2574,19 @@
         <v>243950</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>221967</v>
+        <v>223636</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>268232</v>
+        <v>266985</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4372521713270784</v>
+        <v>0.4372521713270783</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3978494729647655</v>
+        <v>0.4008416951288777</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4807745825312905</v>
+        <v>0.4785395373934855</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>66711</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53651</v>
+        <v>53550</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81053</v>
+        <v>80812</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2973015381621171</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2390962439937719</v>
+        <v>0.2386491071808195</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3612142345454416</v>
+        <v>0.3601419989129123</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>137</v>
@@ -2624,19 +2624,19 @@
         <v>83436</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72132</v>
+        <v>72210</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>97875</v>
+        <v>95875</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2501648471517524</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2162701359233594</v>
+        <v>0.2165061993886069</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.293455579774919</v>
+        <v>0.2874601397984693</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>206</v>
@@ -2645,19 +2645,19 @@
         <v>150148</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>133199</v>
+        <v>132742</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>170329</v>
+        <v>169925</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2691228756138066</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2387444866027445</v>
+        <v>0.2379250990324713</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3052958382846707</v>
+        <v>0.3045712608688614</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>22680</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13682</v>
+        <v>14538</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32961</v>
+        <v>34412</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1010759083351293</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06097581631087548</v>
+        <v>0.06478870586521128</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1468905937387156</v>
+        <v>0.1533560826326162</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>59</v>
@@ -2695,19 +2695,19 @@
         <v>40844</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32113</v>
+        <v>31847</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51817</v>
+        <v>51415</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1224624038037476</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09628337688215408</v>
+        <v>0.09548670485630495</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1553602132641733</v>
+        <v>0.1541556997672323</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>80</v>
@@ -2716,19 +2716,19 @@
         <v>63525</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49916</v>
+        <v>51253</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>77804</v>
+        <v>79032</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1138609135186424</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08946777903400067</v>
+        <v>0.0918642288242271</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1394550981319896</v>
+        <v>0.1416551543736439</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>22810</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14975</v>
+        <v>15072</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>32309</v>
+        <v>32728</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1016544832002936</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06673668504894578</v>
+        <v>0.06716749199815099</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1439840523374462</v>
+        <v>0.1458536998793232</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>60</v>
@@ -2766,19 +2766,19 @@
         <v>38963</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29769</v>
+        <v>30203</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48826</v>
+        <v>49691</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1168216145887713</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08925643441323262</v>
+        <v>0.09055806728054241</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.146392495537656</v>
+        <v>0.1489859763211517</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>85</v>
@@ -2787,19 +2787,19 @@
         <v>61773</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>50509</v>
+        <v>48727</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77952</v>
+        <v>74423</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1107215065330902</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09053100475854027</v>
+        <v>0.08733824712468642</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1397202259104245</v>
+        <v>0.1333952833966734</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>18346</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8211</v>
+        <v>7656</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>37342</v>
+        <v>35005</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2367316050815617</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1059483234612088</v>
+        <v>0.09878701308369989</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4818532477200969</v>
+        <v>0.4516994578409569</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -2912,19 +2912,19 @@
         <v>39939</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>28895</v>
+        <v>29267</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>54571</v>
+        <v>54433</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1093078048446473</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07908082141990344</v>
+        <v>0.08009942732968121</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1493532844249662</v>
+        <v>0.1489765939609173</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>57</v>
@@ -2933,19 +2933,19 @@
         <v>58285</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>42327</v>
+        <v>42145</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>79568</v>
+        <v>82002</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1316050831743114</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09557164464572977</v>
+        <v>0.09516147123789782</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1796616591075145</v>
+        <v>0.1851561545556167</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>24954</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13631</v>
+        <v>14400</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39094</v>
+        <v>39132</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3220055226194009</v>
+        <v>0.322005522619401</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1758927709286843</v>
+        <v>0.1858115135019658</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5044621226745849</v>
+        <v>0.5049475701046563</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>190</v>
@@ -2983,19 +2983,19 @@
         <v>134386</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>118478</v>
+        <v>117406</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>153023</v>
+        <v>153341</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3677966279262688</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3242591264526551</v>
+        <v>0.3213256384057438</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4188027304166666</v>
+        <v>0.4196741547299507</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>201</v>
@@ -3004,19 +3004,19 @@
         <v>159340</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>137961</v>
+        <v>138160</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>181017</v>
+        <v>182139</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3597838625076274</v>
+        <v>0.3597838625076276</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3115104338520914</v>
+        <v>0.3119596229117835</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4087277933576055</v>
+        <v>0.4112625948302225</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>13541</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5582</v>
+        <v>6053</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24442</v>
+        <v>24384</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1747286457361547</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07202835124051477</v>
+        <v>0.07810705535968246</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3153942581036566</v>
+        <v>0.314642564716878</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>132</v>
@@ -3054,19 +3054,19 @@
         <v>91865</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>75848</v>
+        <v>77855</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>107718</v>
+        <v>108768</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2514234093544958</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2075847337775043</v>
+        <v>0.2130800851772753</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2948103268152334</v>
+        <v>0.2976827851853776</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>140</v>
@@ -3075,19 +3075,19 @@
         <v>105406</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>88877</v>
+        <v>89028</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>125833</v>
+        <v>125998</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2380029613091035</v>
+        <v>0.2380029613091036</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2006804127263341</v>
+        <v>0.2010224744303566</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2841261614489605</v>
+        <v>0.2844993345472294</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>7406</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1712</v>
+        <v>1925</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19920</v>
+        <v>20583</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09556351603454175</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02209754934009305</v>
+        <v>0.02483703928500281</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2570475978147208</v>
+        <v>0.265595777543412</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>60</v>
@@ -3125,19 +3125,19 @@
         <v>41650</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31602</v>
+        <v>31639</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53449</v>
+        <v>53486</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1139914022634133</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0864907938176874</v>
+        <v>0.08659193380800644</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1462842706165181</v>
+        <v>0.1463853078028762</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>63</v>
@@ -3146,19 +3146,19 @@
         <v>49056</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>36800</v>
+        <v>37288</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>64103</v>
+        <v>63267</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1107667950274921</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08309324161865657</v>
+        <v>0.08419482310093822</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.144741007360587</v>
+        <v>0.1428539451940991</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>13250</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5211</v>
+        <v>4822</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25324</v>
+        <v>27211</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.170970710528341</v>
+        <v>0.1709707105283411</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06724333975706466</v>
+        <v>0.06221605458771073</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3267763521361658</v>
+        <v>0.3511174291411464</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>74</v>
@@ -3196,19 +3196,19 @@
         <v>57540</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>45383</v>
+        <v>45329</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>72347</v>
+        <v>71739</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1574807556111748</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1242067401192901</v>
+        <v>0.1240590930718327</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1980044836298704</v>
+        <v>0.196341153226671</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>80</v>
@@ -3217,19 +3217,19 @@
         <v>70790</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>54480</v>
+        <v>55380</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>89521</v>
+        <v>90388</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1598412979814653</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.123012597643389</v>
+        <v>0.1250460179921233</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.202135022024942</v>
+        <v>0.2040913519458784</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>122139</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>94912</v>
+        <v>96875</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>154158</v>
+        <v>153882</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.0918720712696295</v>
+        <v>0.09187207126962951</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0713924408091775</v>
+        <v>0.07286865838900741</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1159568699466337</v>
+        <v>0.1157491204848356</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>182</v>
@@ -3342,19 +3342,19 @@
         <v>132409</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>113287</v>
+        <v>114134</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>155776</v>
+        <v>154896</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.09335776140959026</v>
+        <v>0.09335776140959025</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07987500585730534</v>
+        <v>0.08047197917143412</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1098325243946309</v>
+        <v>0.1092120941192028</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>273</v>
@@ -3363,19 +3363,19 @@
         <v>254548</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>221933</v>
+        <v>221064</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>292131</v>
+        <v>289846</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09263893920286309</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08076909117494675</v>
+        <v>0.0804527145097733</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1063166017314495</v>
+        <v>0.1054850814673634</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>326821</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>291011</v>
+        <v>295134</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>361006</v>
+        <v>362246</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2458331438830049</v>
+        <v>0.245833143883005</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2188972659151845</v>
+        <v>0.2219980063508684</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2715467654641845</v>
+        <v>0.2724796541041846</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>663</v>
@@ -3413,19 +3413,19 @@
         <v>434186</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>407249</v>
+        <v>404464</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>467479</v>
+        <v>462951</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3061305858244955</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2871382449347342</v>
+        <v>0.285174924648492</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3296049546572655</v>
+        <v>0.3264121548994992</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>985</v>
@@ -3434,19 +3434,19 @@
         <v>761007</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>717541</v>
+        <v>716189</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>812001</v>
+        <v>808024</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2769568442005995</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2611382133650713</v>
+        <v>0.2606460985968797</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2955155751447181</v>
+        <v>0.294067885925163</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>506640</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>470534</v>
+        <v>472117</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>549328</v>
+        <v>547206</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3810917611296134</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3539334193621534</v>
+        <v>0.3551242095419672</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4132013073051548</v>
+        <v>0.4116056574109067</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>696</v>
@@ -3484,19 +3484,19 @@
         <v>458707</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>429188</v>
+        <v>429860</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>490382</v>
+        <v>490590</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.3234201443176186</v>
+        <v>0.3234201443176185</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3026067190928919</v>
+        <v>0.3030806455113377</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3457530133975179</v>
+        <v>0.3458992947148358</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1212</v>
@@ -3505,19 +3505,19 @@
         <v>965347</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>919611</v>
+        <v>915883</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1020322</v>
+        <v>1014935</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3513234316500742</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3346784054710326</v>
+        <v>0.3333217913002061</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3713308347529162</v>
+        <v>0.3693702539499642</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>201524</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>176121</v>
+        <v>173538</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>232113</v>
+        <v>232599</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1515855187050213</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1324774730752473</v>
+        <v>0.1305347306505359</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1745944182326898</v>
+        <v>0.1749597149269128</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>262</v>
@@ -3555,19 +3555,19 @@
         <v>189732</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>167365</v>
+        <v>169449</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>212166</v>
+        <v>211019</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1337738386262998</v>
+        <v>0.1337738386262997</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1180038424902119</v>
+        <v>0.1194731057910963</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1495912603968852</v>
+        <v>0.1487826826409076</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>462</v>
@@ -3576,19 +3576,19 @@
         <v>391256</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>357965</v>
+        <v>359055</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>430788</v>
+        <v>428476</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1423916727461674</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1302757658873842</v>
+        <v>0.1306725576012935</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1567787168245859</v>
+        <v>0.1559373778152978</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>172319</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>147530</v>
+        <v>149173</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>200668</v>
+        <v>198337</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1296175050127309</v>
+        <v>0.129617505012731</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1109709282301083</v>
+        <v>0.1122072621333652</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1509417269800375</v>
+        <v>0.1491878547061225</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>295</v>
@@ -3626,19 +3626,19 @@
         <v>203268</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>180064</v>
+        <v>181033</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>226329</v>
+        <v>226926</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1433176698219959</v>
+        <v>0.1433176698219958</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1269576690092699</v>
+        <v>0.1276405884517212</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1595777782302258</v>
+        <v>0.1599983195205528</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>480</v>
@@ -3647,19 +3647,19 @@
         <v>375587</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>343312</v>
+        <v>341269</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>412854</v>
+        <v>412993</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1366891122002958</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1249430700521168</v>
+        <v>0.124199798856618</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1502520831243896</v>
+        <v>0.1503023548176624</v>
       </c>
     </row>
     <row r="45">
